--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -675,7 +675,6 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
     &lt;code value="vital-signs"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -675,6 +675,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
     &lt;code value="vital-signs"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="569">
   <si>
     <t>Path</t>
   </si>
@@ -156,17 +156,17 @@
     <t/>
   </si>
   <si>
-    <t>Measurements and simple assertions</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+    <t>FHIR Vital Signs Profile</t>
+  </si>
+  <si>
+    <t>The FHIR Vitals Signs profile sets minimum expectations for the Observation Resource to record, search and fetch the vital signs associated with a patient.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -600,7 +600,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -631,9 +631,6 @@
   </si>
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -673,24 +670,204 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="vital-signs"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>vital-signs</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -700,16 +877,16 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+    <t>Coded Responses from C-CDA Vital Sign Results</t>
+  </si>
+  <si>
+    <t>Coded Responses from C-CDA Vital Sign Results.</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+    <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -720,10 +897,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>This identifies the vital sign result type.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -788,7 +965,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -840,13 +1017,13 @@
 </t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>Often just a dateTime for Vital Signs</t>
+  </si>
+  <si>
+    <t>Often just a dateTime for Vital Signs.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -859,6 +1036,14 @@
     <t>closed</t>
   </si>
   <si>
+    <t xml:space="preserve">vs-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -883,7 +1068,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -930,20 +1115,17 @@
 </t>
   </si>
   <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
+  </si>
+  <si>
+    <t>obs-7
+vs-2</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -1114,8 +1296,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>obs-6
+vs-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1193,7 +1375,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1346,7 +1528,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1475,17 +1657,17 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
-  </si>
-  <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>Used when reporting vital signs panel components</t>
+  </si>
+  <si>
+    <t>Used when reporting vital signs panel components.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1497,7 +1679,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
   </si>
   <si>
@@ -1507,7 +1689,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1516,18 +1698,19 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
-  </si>
-  <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Used when reporting systolic and diastolic blood pressure.</t>
+  </si>
+  <si>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+vs-3:If there is no a value a data absent reason must be present {value.exists() or dataAbsentReason.exists()}</t>
+  </si>
+  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1553,6 +1736,9 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1566,10 +1752,23 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Actual component result</t>
-  </si>
-  <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Vital Sign Value recorded with UCUM</t>
+  </si>
+  <si>
+    <t>Vital Sign Value recorded with UCUM.</t>
+  </si>
+  <si>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>Common UCUM units for recording Vital Signs.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs-3
+</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -1586,6 +1785,10 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>obs-6
+vs-3</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1746,7 +1949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO68"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1765,7 +1968,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1779,9 +1982,9 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.34375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -4255,7 +4458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>189</v>
       </c>
@@ -4271,7 +4474,7 @@
         <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>56</v>
@@ -4319,11 +4522,9 @@
       <c r="W22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="X22" s="2"/>
+      <c r="Y22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4356,19 +4557,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4376,7 +4577,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4390,7 +4591,7 @@
         <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4399,19 +4600,19 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4421,7 +4622,7 @@
         <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>45</v>
@@ -4439,28 +4640,26 @@
         <v>136</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4484,22 +4683,24 @@
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AO23" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4509,28 +4710,28 @@
         <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4540,7 +4741,7 @@
         <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>45</v>
@@ -4555,13 +4756,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4579,13 +4780,13 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -4594,27 +4795,27 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4622,7 +4823,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>55</v>
@@ -4634,23 +4835,19 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4698,7 +4895,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4710,22 +4907,22 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4733,18 +4930,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4753,19 +4950,19 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4803,19 +5000,19 @@
         <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4827,7 +5024,7 @@
         <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>45</v>
@@ -4836,35 +5033,35 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
@@ -4873,19 +5070,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4934,13 +5131,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4949,19 +5146,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4969,15 +5166,15 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>55</v>
@@ -4989,23 +5186,19 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>258</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -5041,17 +5234,19 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5063,22 +5258,22 @@
         <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -5086,20 +5281,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
@@ -5108,23 +5301,21 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5160,54 +5351,54 @@
         <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5215,13 +5406,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -5230,24 +5421,26 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5289,7 +5482,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5310,13 +5503,13 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5324,7 +5517,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5335,7 +5528,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5347,18 +5540,18 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5406,13 +5599,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5421,27 +5614,27 @@
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5449,13 +5642,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>45</v>
@@ -5464,26 +5657,24 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>45</v>
@@ -5513,17 +5704,19 @@
         <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AB32" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5532,7 +5725,7 @@
         <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>67</v>
@@ -5541,28 +5734,26 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5583,19 +5774,17 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>287</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5644,7 +5833,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5653,7 +5842,7 @@
         <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>67</v>
@@ -5662,24 +5851,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5699,19 +5888,23 @@
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5759,7 +5952,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5771,7 +5964,7 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
@@ -5780,10 +5973,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5794,18 +5987,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5814,21 +6007,23 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5864,31 +6059,31 @@
         <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5897,10 +6092,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5909,23 +6104,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
@@ -5934,19 +6129,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5956,7 +6151,7 @@
         <v>45</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>45</v>
@@ -5971,13 +6166,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5995,10 +6190,10 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>55</v>
@@ -6010,27 +6205,27 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6038,39 +6233,39 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6090,13 +6285,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6114,7 +6309,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6129,19 +6324,19 @@
         <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6149,7 +6344,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6160,7 +6355,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6172,18 +6367,18 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6192,7 +6387,7 @@
         <v>45</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>45</v>
@@ -6231,13 +6426,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -6252,13 +6447,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6266,18 +6461,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6289,17 +6484,19 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6348,7 +6545,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6357,25 +6554,25 @@
         <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6383,21 +6580,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
@@ -6406,19 +6603,19 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>132</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6455,19 +6652,17 @@
         <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6476,68 +6671,70 @@
         <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6562,13 +6759,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6586,7 +6783,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6595,25 +6792,25 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6621,11 +6818,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6641,23 +6838,21 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6681,13 +6876,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6705,13 +6900,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6723,24 +6918,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6751,7 +6946,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6760,22 +6955,20 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6824,7 +7017,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6839,19 +7032,19 @@
         <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6859,7 +7052,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6870,30 +7063,32 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6917,31 +7112,29 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>374</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6950,7 +7143,7 @@
         <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>67</v>
@@ -6959,26 +7152,28 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>379</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6987,31 +7182,31 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7036,13 +7231,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -7060,7 +7255,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7069,7 +7264,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -7078,24 +7273,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7106,7 +7301,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -7118,17 +7313,15 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>390</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>391</v>
+        <v>69</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7177,7 +7370,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>389</v>
+        <v>71</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7189,41 +7382,41 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>396</v>
+        <v>72</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -7235,16 +7428,16 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7282,54 +7475,54 @@
         <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>405</v>
+        <v>72</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7340,7 +7533,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7349,22 +7542,22 @@
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7413,19 +7606,19 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>413</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7434,10 +7627,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7448,7 +7641,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7465,26 +7658,30 @@
         <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>69</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>70</v>
+        <v>372</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7504,13 +7701,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7528,7 +7725,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>71</v>
+        <v>377</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7540,7 +7737,7 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7549,10 +7746,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>72</v>
+        <v>379</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7563,18 +7760,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7583,21 +7780,21 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7606,7 +7803,7 @@
         <v>45</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>45</v>
@@ -7645,19 +7842,19 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7666,10 +7863,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7680,42 +7877,40 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7764,19 +7959,19 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7785,10 +7980,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>155</v>
+        <v>394</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7799,7 +7994,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7819,19 +8014,23 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>425</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7879,7 +8078,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7888,7 +8087,7 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7900,10 +8099,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7912,9 +8111,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7925,10 +8124,10 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>45</v>
@@ -7937,16 +8136,20 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>425</v>
+        <v>203</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7970,13 +8173,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7994,7 +8197,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8003,7 +8206,7 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>67</v>
@@ -8015,10 +8218,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>429</v>
+        <v>155</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8029,18 +8232,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -8052,19 +8255,19 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8089,13 +8292,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8113,13 +8316,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -8131,24 +8334,24 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8159,7 +8362,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8171,19 +8374,19 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>204</v>
+        <v>424</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8208,13 +8411,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8232,7 +8435,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8250,13 +8453,13 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8267,7 +8470,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8278,7 +8481,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8290,18 +8493,18 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>452</v>
+        <v>203</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8325,13 +8528,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>45</v>
+        <v>436</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8349,7 +8552,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8367,24 +8570,24 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>438</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8395,7 +8598,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8407,16 +8610,20 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8440,13 +8647,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8464,7 +8671,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8485,10 +8692,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8499,7 +8706,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8519,19 +8726,19 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8581,13 +8788,13 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
@@ -8599,24 +8806,24 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>45</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8636,19 +8843,19 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8698,13 +8905,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8716,24 +8923,24 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>45</v>
+        <v>464</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM59" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>45</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8753,22 +8960,22 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8817,7 +9024,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8829,7 +9036,7 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>474</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8838,10 +9045,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8852,7 +9059,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8967,7 +9174,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9084,11 +9291,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9110,16 +9317,16 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9168,7 +9375,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>484</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9203,7 +9410,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9211,7 +9418,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>55</v>
@@ -9223,23 +9430,19 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>204</v>
+        <v>486</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9263,13 +9466,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9287,16 +9490,16 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>67</v>
@@ -9305,16 +9508,16 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>488</v>
+        <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>225</v>
+        <v>490</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>226</v>
+        <v>491</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>45</v>
@@ -9322,7 +9525,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9342,23 +9545,19 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9406,7 +9605,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9415,7 +9614,7 @@
         <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>67</v>
@@ -9424,24 +9623,24 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>493</v>
+        <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>294</v>
+        <v>490</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>295</v>
+        <v>495</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9464,19 +9663,19 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>345</v>
+        <v>500</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9501,13 +9700,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>346</v>
+        <v>501</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>347</v>
+        <v>502</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9525,7 +9724,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9534,7 +9733,7 @@
         <v>55</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>67</v>
@@ -9543,13 +9742,13 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>155</v>
+        <v>504</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>349</v>
+        <v>421</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9560,11 +9759,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9583,19 +9782,19 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>352</v>
+        <v>506</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>353</v>
+        <v>507</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>354</v>
+        <v>508</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>355</v>
+        <v>509</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9620,13 +9819,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>356</v>
+        <v>510</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>357</v>
+        <v>511</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9644,7 +9843,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9662,24 +9861,24 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>358</v>
+        <v>503</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>359</v>
+        <v>504</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9690,7 +9889,7 @@
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9702,19 +9901,17 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>412</v>
+        <v>516</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9763,13 +9960,13 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
@@ -9784,20 +9981,1434 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO68" t="s" s="2">
+      <c r="N79" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO68">
+  <autoFilter ref="A1:AO80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9807,7 +11418,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="584">
   <si>
     <t>Path</t>
   </si>
@@ -156,10 +156,10 @@
     <t/>
   </si>
   <si>
-    <t>FHIR Vital Signs Profile</t>
-  </si>
-  <si>
-    <t>The FHIR Vitals Signs profile sets minimum expectations for the Observation Resource to record, search and fetch the vital signs associated with a patient.</t>
+    <t>FHIR Heart Rate Profile</t>
+  </si>
+  <si>
+    <t>This profile defines how to represent heart rate observations in FHIR using a standard LOINC code and UCUM units of measure.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
@@ -873,17 +873,17 @@
     <t>Observation.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Coded Responses from C-CDA Vital Sign Results</t>
-  </si>
-  <si>
-    <t>Coded Responses from C-CDA Vital Sign Results.</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+    <t>Name
+Test</t>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+  </si>
+  <si>
+    <t>Heart Rate.</t>
+  </si>
+  <si>
+    <t>additional codes that translate or map to this code are allowed.  For example a more granular LOINC code or code that is used locally in a system.</t>
   </si>
   <si>
     <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
@@ -893,6 +893,7 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="8867-4"/&gt;
+    &lt;display value="Heart rate"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -921,6 +922,52 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>value:code}
+value:system}</t>
+  </si>
+  <si>
+    <t>HeartRateCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>8867-4</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
     <t>Observation.subject</t>
   </si>
   <si>
@@ -1243,6 +1290,9 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
     <t>Quantity.system</t>
   </si>
   <si>
@@ -1256,10 +1306,7 @@
     <t>Observation.value[x].code</t>
   </si>
   <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
+    <t>Coded responses from the common UCUM units for vital signs value set.</t>
   </si>
   <si>
     <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
@@ -1949,7 +1996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO80"/>
+  <dimension ref="A1:AO92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6223,7 +6270,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>289</v>
       </c>
@@ -6233,35 +6280,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>290</v>
+        <v>57</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>69</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6309,7 +6352,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6321,22 +6364,22 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>297</v>
+        <v>72</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6344,18 +6387,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6364,19 +6407,19 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6414,19 +6457,19 @@
         <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6438,7 +6481,7 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6447,13 +6490,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>304</v>
+        <v>72</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6461,18 +6504,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6484,19 +6527,19 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>307</v>
+        <v>109</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>310</v>
+        <v>219</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6533,25 +6576,23 @@
         <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6560,19 +6601,19 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>313</v>
+        <v>222</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>314</v>
+        <v>223</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6580,11 +6621,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="C40" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6594,7 +6637,7 @@
         <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
@@ -6603,19 +6646,19 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>318</v>
+        <v>109</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>218</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
+        <v>219</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6652,90 +6695,86 @@
         <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AB40" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>326</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>328</v>
+        <v>222</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>329</v>
+        <v>223</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>318</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>69</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6783,7 +6822,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6792,25 +6831,25 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6818,18 +6857,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6838,19 +6877,19 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>333</v>
+        <v>76</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6888,31 +6927,31 @@
         <v>45</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
@@ -6921,13 +6960,13 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>72</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6935,7 +6974,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6943,10 +6982,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6958,24 +6997,26 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>343</v>
+        <v>230</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>45</v>
@@ -7017,13 +7058,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>232</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -7032,19 +7073,19 @@
         <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>345</v>
+        <v>233</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>346</v>
+        <v>234</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -7052,7 +7093,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7066,7 +7107,7 @@
         <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
@@ -7075,20 +7116,18 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>349</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>236</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -7124,17 +7163,19 @@
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AB44" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>348</v>
+        <v>239</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7143,7 +7184,7 @@
         <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>67</v>
@@ -7152,40 +7193,38 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>355</v>
+        <v>240</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>356</v>
+        <v>241</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
@@ -7194,26 +7233,24 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>349</v>
+        <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>243</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>352</v>
+        <v>245</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>45</v>
@@ -7255,7 +7292,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>348</v>
+        <v>247</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7264,7 +7301,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -7273,24 +7310,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>356</v>
+        <v>249</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>301</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7310,19 +7347,21 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7370,7 +7409,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7382,7 +7421,7 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -7391,10 +7430,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7405,18 +7444,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -7425,21 +7464,23 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7475,31 +7516,31 @@
         <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7508,10 +7549,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7522,7 +7563,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7545,19 +7586,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>362</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>363</v>
+        <v>267</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>364</v>
+        <v>268</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>365</v>
+        <v>269</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>366</v>
+        <v>270</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7606,7 +7647,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>367</v>
+        <v>271</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7627,10 +7668,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>368</v>
+        <v>272</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>369</v>
+        <v>273</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7639,9 +7680,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7649,39 +7690,39 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P49" t="s" s="2">
-        <v>374</v>
-      </c>
+      <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7701,13 +7742,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>376</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7725,7 +7766,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7740,19 +7781,19 @@
         <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7760,7 +7801,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7771,7 +7812,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7783,18 +7824,18 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>381</v>
+        <v>316</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7803,7 +7844,7 @@
         <v>45</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>45</v>
@@ -7842,13 +7883,13 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>314</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
@@ -7863,13 +7904,13 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>386</v>
+        <v>285</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>387</v>
+        <v>319</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
@@ -7877,18 +7918,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>320</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7900,17 +7941,19 @@
         <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>322</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="N51" t="s" s="2">
-        <v>391</v>
+        <v>326</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7959,7 +8002,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7968,25 +8011,25 @@
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -7994,21 +8037,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>45</v>
@@ -8017,19 +8060,19 @@
         <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>132</v>
+        <v>333</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>336</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -8066,19 +8109,17 @@
         <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8087,25 +8128,25 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>341</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>45</v>
@@ -8113,18 +8154,20 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>56</v>
@@ -8133,22 +8176,22 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>334</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
+        <v>336</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>406</v>
+        <v>337</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -8173,13 +8216,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -8197,7 +8240,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>402</v>
+        <v>331</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8206,25 +8249,25 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>67</v>
+        <v>341</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>155</v>
+        <v>343</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>45</v>
@@ -8232,11 +8275,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8252,23 +8295,21 @@
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8292,13 +8333,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8316,13 +8357,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -8334,24 +8375,24 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>421</v>
+        <v>352</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>422</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>354</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8362,7 +8403,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8371,22 +8412,20 @@
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>425</v>
+        <v>356</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>428</v>
+        <v>358</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8435,7 +8474,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>423</v>
+        <v>354</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8450,19 +8489,19 @@
         <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>45</v>
@@ -8470,7 +8509,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8481,30 +8520,32 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>203</v>
+        <v>364</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>432</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8528,31 +8569,29 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>435</v>
+        <v>45</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>436</v>
+        <v>45</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8561,7 +8600,7 @@
         <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>67</v>
@@ -8570,26 +8609,28 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>440</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8598,31 +8639,31 @@
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>203</v>
+        <v>364</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>442</v>
+        <v>365</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>443</v>
+        <v>365</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>444</v>
+        <v>366</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>445</v>
+        <v>367</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8647,13 +8688,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>446</v>
+        <v>45</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>447</v>
+        <v>45</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8671,7 +8712,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>441</v>
+        <v>363</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8680,7 +8721,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8689,24 +8730,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>448</v>
+        <v>370</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>449</v>
+        <v>371</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>450</v>
+        <v>374</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8717,7 +8758,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8729,17 +8770,15 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>451</v>
+        <v>57</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>452</v>
+        <v>69</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8788,7 +8827,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>450</v>
+        <v>71</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8800,41 +8839,41 @@
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>455</v>
+        <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>456</v>
+        <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>457</v>
+        <v>72</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>458</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>459</v>
+        <v>375</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8846,16 +8885,16 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>460</v>
+        <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8893,54 +8932,54 @@
         <v>45</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>464</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>465</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>466</v>
+        <v>72</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>467</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>468</v>
+        <v>376</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8948,34 +8987,34 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>469</v>
+        <v>377</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>470</v>
+        <v>378</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>471</v>
+        <v>379</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>472</v>
+        <v>380</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>473</v>
+        <v>381</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9024,19 +9063,19 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>468</v>
+        <v>382</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>474</v>
+        <v>67</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -9045,10 +9084,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>475</v>
+        <v>383</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>476</v>
+        <v>384</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -9059,7 +9098,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>477</v>
+        <v>385</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9076,26 +9115,30 @@
         <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>69</v>
+        <v>386</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>70</v>
+        <v>387</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="Q61" t="s" s="2">
         <v>45</v>
       </c>
@@ -9115,13 +9158,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -9139,7 +9182,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>71</v>
+        <v>392</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9151,7 +9194,7 @@
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>45</v>
@@ -9160,10 +9203,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>72</v>
+        <v>394</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9172,43 +9215,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>478</v>
+        <v>395</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -9217,7 +9260,7 @@
         <v>45</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>45</v>
@@ -9256,19 +9299,19 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
@@ -9277,10 +9320,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>72</v>
+        <v>402</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9289,51 +9332,49 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>479</v>
+        <v>403</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>480</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>481</v>
+        <v>404</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>483</v>
+        <v>406</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>45</v>
@@ -9375,19 +9416,19 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>484</v>
+        <v>408</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
@@ -9396,10 +9437,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>155</v>
+        <v>410</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9408,9 +9449,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>485</v>
+        <v>411</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9418,37 +9459,41 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>486</v>
+        <v>132</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>487</v>
+        <v>412</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>45</v>
@@ -9490,7 +9535,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>485</v>
+        <v>415</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9499,7 +9544,7 @@
         <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>489</v>
+        <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>67</v>
@@ -9511,10 +9556,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>490</v>
+        <v>401</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>491</v>
+        <v>416</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9523,9 +9568,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>492</v>
+        <v>417</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9536,10 +9581,10 @@
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>45</v>
@@ -9548,16 +9593,20 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>486</v>
+        <v>203</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>493</v>
+        <v>418</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9581,13 +9630,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9605,7 +9654,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>492</v>
+        <v>417</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9614,7 +9663,7 @@
         <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>489</v>
+        <v>424</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>67</v>
@@ -9626,10 +9675,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>490</v>
+        <v>155</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>495</v>
+        <v>425</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9640,18 +9689,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>496</v>
+        <v>426</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9666,16 +9715,16 @@
         <v>203</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>497</v>
+        <v>428</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>498</v>
+        <v>429</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>499</v>
+        <v>430</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9700,13 +9749,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>501</v>
+        <v>432</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>502</v>
+        <v>433</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9724,13 +9773,13 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>496</v>
+        <v>426</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
@@ -9742,24 +9791,24 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>503</v>
+        <v>434</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>504</v>
+        <v>435</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>45</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>505</v>
+        <v>438</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9770,7 +9819,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9782,19 +9831,19 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>203</v>
+        <v>439</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>507</v>
+        <v>441</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>508</v>
+        <v>442</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9819,13 +9868,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>510</v>
+        <v>45</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>511</v>
+        <v>45</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9843,7 +9892,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>505</v>
+        <v>438</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9861,13 +9910,13 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>503</v>
+        <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9878,7 +9927,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9889,7 +9938,7 @@
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9901,18 +9950,18 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>513</v>
+        <v>203</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>514</v>
+        <v>447</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9936,13 +9985,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>45</v>
+        <v>451</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9960,7 +10009,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9978,24 +10027,24 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>517</v>
+        <v>454</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10006,7 +10055,7 @@
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -10018,16 +10067,20 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>519</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -10051,13 +10104,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>45</v>
+        <v>462</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -10075,7 +10128,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10096,10 +10149,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10110,7 +10163,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>522</v>
+        <v>465</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10130,19 +10183,19 @@
         <v>45</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>523</v>
+        <v>466</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>525</v>
+        <v>468</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10192,13 +10245,13 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>522</v>
+        <v>465</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -10210,24 +10263,24 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>45</v>
+        <v>470</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>527</v>
+        <v>471</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>45</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>474</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10247,19 +10300,19 @@
         <v>45</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>531</v>
+        <v>476</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>532</v>
+        <v>477</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>533</v>
+        <v>478</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10309,13 +10362,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>529</v>
+        <v>474</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10327,24 +10380,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>45</v>
+        <v>479</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>534</v>
+        <v>481</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>45</v>
+        <v>482</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>535</v>
+        <v>483</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10358,28 +10411,28 @@
         <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10428,7 +10481,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>535</v>
+        <v>483</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10440,7 +10493,7 @@
         <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>45</v>
@@ -10449,10 +10502,10 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10463,7 +10516,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10578,7 +10631,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10695,11 +10748,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10721,16 +10774,16 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10779,7 +10832,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10812,9 +10865,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>545</v>
+        <v>500</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10822,35 +10875,31 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>203</v>
+        <v>501</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10874,13 +10923,13 @@
         <v>45</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -10898,16 +10947,16 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>545</v>
+        <v>500</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>45</v>
+        <v>504</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>67</v>
@@ -10916,24 +10965,24 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>550</v>
+        <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>285</v>
+        <v>505</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>286</v>
+        <v>506</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>551</v>
+        <v>507</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10947,29 +10996,25 @@
         <v>55</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>552</v>
+        <v>501</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -10993,13 +11038,13 @@
         <v>45</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>556</v>
+        <v>45</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>557</v>
+        <v>45</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>45</v>
@@ -11017,7 +11062,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>551</v>
+        <v>507</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -11026,7 +11071,7 @@
         <v>55</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>558</v>
+        <v>504</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>67</v>
@@ -11035,24 +11080,24 @@
         <v>45</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>559</v>
+        <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>355</v>
+        <v>505</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>356</v>
+        <v>510</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11066,7 +11111,7 @@
         <v>55</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>45</v>
@@ -11078,16 +11123,16 @@
         <v>203</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>561</v>
+        <v>512</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>562</v>
+        <v>513</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>563</v>
+        <v>514</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>406</v>
+        <v>515</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
@@ -11112,13 +11157,13 @@
         <v>45</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>407</v>
+        <v>516</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>408</v>
+        <v>517</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>45</v>
@@ -11136,7 +11181,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11145,7 +11190,7 @@
         <v>55</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>564</v>
+        <v>45</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>67</v>
@@ -11154,13 +11199,13 @@
         <v>45</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>45</v>
+        <v>518</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>155</v>
+        <v>519</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11171,11 +11216,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>565</v>
+        <v>520</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11197,16 +11242,16 @@
         <v>203</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>413</v>
+        <v>521</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>414</v>
+        <v>522</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>415</v>
+        <v>523</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>416</v>
+        <v>524</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11231,13 +11276,13 @@
         <v>45</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>417</v>
+        <v>525</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>418</v>
+        <v>526</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>45</v>
@@ -11255,7 +11300,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>565</v>
+        <v>520</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11273,24 +11318,24 @@
         <v>45</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>419</v>
+        <v>518</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>420</v>
+        <v>519</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>422</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11301,7 +11346,7 @@
         <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>45</v>
@@ -11313,19 +11358,17 @@
         <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>45</v>
+        <v>528</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11374,13 +11417,13 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>45</v>
@@ -11395,20 +11438,1434 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>475</v>
+        <v>45</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO80" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO80">
+  <autoFilter ref="A1:AO92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11418,7 +12875,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="583">
   <si>
     <t>Path</t>
   </si>
@@ -887,15 +887,6 @@
   </si>
   <si>
     <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="8867-4"/&gt;
-    &lt;display value="Heart rate"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>This identifies the vital sign result type.</t>
@@ -6198,7 +6189,7 @@
         <v>45</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>45</v>
@@ -6216,10 +6207,10 @@
         <v>113</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -6252,27 +6243,27 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6387,7 +6378,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6504,7 +6495,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6576,7 +6567,7 @@
         <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
@@ -6621,10 +6612,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>45</v>
@@ -6742,7 +6733,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6857,7 +6848,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6974,7 +6965,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7016,7 +7007,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>45</v>
@@ -7093,7 +7084,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7210,7 +7201,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7250,7 +7241,7 @@
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>45</v>
@@ -7327,7 +7318,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7444,7 +7435,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7563,7 +7554,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7682,7 +7673,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7705,19 +7696,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7766,7 +7757,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7781,19 +7772,19 @@
         <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7801,7 +7792,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7824,16 +7815,16 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7883,7 +7874,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7904,13 +7895,13 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
@@ -7918,11 +7909,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7941,19 +7932,19 @@
         <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -8002,7 +7993,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -8017,19 +8008,19 @@
         <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -8037,11 +8028,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8060,19 +8051,19 @@
         <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -8109,17 +8100,17 @@
         <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8128,25 +8119,25 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AI52" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AI52" t="s" s="2">
+      <c r="AJ52" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>45</v>
@@ -8154,13 +8145,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8179,19 +8170,19 @@
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -8240,7 +8231,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8249,25 +8240,25 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AI53" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AI53" t="s" s="2">
+      <c r="AJ53" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>45</v>
@@ -8275,7 +8266,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8301,13 +8292,13 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8357,7 +8348,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8378,13 +8369,13 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>45</v>
@@ -8392,7 +8383,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8415,17 +8406,17 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8474,7 +8465,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8489,19 +8480,19 @@
         <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>45</v>
@@ -8509,7 +8500,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8532,19 +8523,19 @@
         <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8581,17 +8572,17 @@
         <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8600,7 +8591,7 @@
         <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>67</v>
@@ -8609,27 +8600,27 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>45</v>
@@ -8651,19 +8642,19 @@
         <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8712,7 +8703,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8721,7 +8712,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8730,24 +8721,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8862,7 +8853,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8979,7 +8970,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9002,19 +8993,19 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9063,7 +9054,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9084,10 +9075,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -9098,7 +9089,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9124,20 +9115,20 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P61" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="Q61" t="s" s="2">
         <v>45</v>
@@ -9161,28 +9152,28 @@
         <v>195</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE61" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9203,10 +9194,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9217,7 +9208,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9243,14 +9234,14 @@
         <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9260,46 +9251,46 @@
         <v>45</v>
       </c>
       <c r="R62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9320,10 +9311,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9334,7 +9325,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9360,63 +9351,63 @@
         <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE63" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9425,7 +9416,7 @@
         <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>67</v>
@@ -9437,10 +9428,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9451,7 +9442,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9477,23 +9468,23 @@
         <v>132</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>45</v>
@@ -9535,7 +9526,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9556,10 +9547,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9570,7 +9561,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9596,16 +9587,16 @@
         <v>203</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9633,11 +9624,11 @@
         <v>113</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9654,7 +9645,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9663,7 +9654,7 @@
         <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>67</v>
@@ -9678,7 +9669,7 @@
         <v>155</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9689,11 +9680,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9715,16 +9706,16 @@
         <v>203</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9752,11 +9743,11 @@
         <v>113</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9773,7 +9764,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9791,24 +9782,24 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9831,19 +9822,19 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9892,7 +9883,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9913,10 +9904,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9927,7 +9918,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9953,13 +9944,13 @@
         <v>203</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9988,11 +9979,11 @@
         <v>122</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
       </c>
@@ -10009,7 +10000,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -10027,24 +10018,24 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10070,16 +10061,16 @@
         <v>203</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -10107,11 +10098,11 @@
         <v>122</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
       </c>
@@ -10128,7 +10119,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10149,10 +10140,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10163,7 +10154,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10186,16 +10177,16 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10245,7 +10236,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10263,24 +10254,24 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>473</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10303,16 +10294,16 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10362,7 +10353,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10380,24 +10371,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10420,19 +10411,19 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10481,7 +10472,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10493,19 +10484,19 @@
         <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AJ72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10516,7 +10507,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10631,7 +10622,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10748,11 +10739,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10774,16 +10765,16 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10832,7 +10823,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10867,7 +10858,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10890,13 +10881,13 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10947,7 +10938,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10956,7 +10947,7 @@
         <v>55</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>67</v>
@@ -10968,10 +10959,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -10982,7 +10973,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11005,13 +10996,13 @@
         <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11062,7 +11053,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -11071,7 +11062,7 @@
         <v>55</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>67</v>
@@ -11083,10 +11074,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -11097,7 +11088,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11123,16 +11114,16 @@
         <v>203</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
@@ -11160,11 +11151,11 @@
         <v>136</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11181,7 +11172,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11199,13 +11190,13 @@
         <v>45</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="AM78" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11216,7 +11207,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11242,16 +11233,16 @@
         <v>203</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11279,11 +11270,11 @@
         <v>122</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>526</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>45</v>
       </c>
@@ -11300,7 +11291,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11318,13 +11309,13 @@
         <v>45</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AL79" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="AM79" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11335,7 +11326,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11358,17 +11349,17 @@
         <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11417,7 +11408,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11441,7 +11432,7 @@
         <v>45</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11452,7 +11443,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11478,10 +11469,10 @@
         <v>57</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11532,7 +11523,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11553,10 +11544,10 @@
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11567,7 +11558,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11590,16 +11581,16 @@
         <v>56</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11649,7 +11640,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11670,10 +11661,10 @@
         <v>45</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11684,7 +11675,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11707,16 +11698,16 @@
         <v>56</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11766,7 +11757,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11787,10 +11778,10 @@
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11801,7 +11792,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11824,19 +11815,19 @@
         <v>56</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11885,7 +11876,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11897,19 +11888,19 @@
         <v>45</v>
       </c>
       <c r="AI84" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AJ84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -11920,7 +11911,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12035,7 +12026,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12152,11 +12143,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12178,16 +12169,16 @@
         <v>75</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -12236,7 +12227,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12271,7 +12262,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12297,16 +12288,16 @@
         <v>203</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>45</v>
@@ -12334,11 +12325,11 @@
         <v>113</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y88" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="Z88" t="s" s="2">
         <v>45</v>
       </c>
@@ -12355,7 +12346,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>55</v>
@@ -12373,16 +12364,16 @@
         <v>45</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>45</v>
@@ -12390,7 +12381,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12413,19 +12404,19 @@
         <v>56</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>570</v>
-      </c>
       <c r="N89" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>45</v>
@@ -12453,11 +12444,11 @@
         <v>195</v>
       </c>
       <c r="X89" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="Y89" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="Y89" t="s" s="2">
-        <v>572</v>
-      </c>
       <c r="Z89" t="s" s="2">
         <v>45</v>
       </c>
@@ -12474,7 +12465,7 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
@@ -12483,7 +12474,7 @@
         <v>55</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>67</v>
@@ -12492,24 +12483,24 @@
         <v>45</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AM89" t="s" s="2">
+      <c r="AN89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO89" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12535,16 +12526,16 @@
         <v>203</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>578</v>
-      </c>
       <c r="N90" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -12572,11 +12563,11 @@
         <v>113</v>
       </c>
       <c r="X90" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y90" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Y90" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="Z90" t="s" s="2">
         <v>45</v>
       </c>
@@ -12593,7 +12584,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -12602,7 +12593,7 @@
         <v>55</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>67</v>
@@ -12617,7 +12608,7 @@
         <v>155</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -12628,11 +12619,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12654,16 +12645,16 @@
         <v>203</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>45</v>
@@ -12691,11 +12682,11 @@
         <v>113</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>45</v>
       </c>
@@ -12712,7 +12703,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -12730,24 +12721,24 @@
         <v>45</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12773,16 +12764,16 @@
         <v>45</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="M92" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
@@ -12831,7 +12822,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -12852,10 +12843,10 @@
         <v>45</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -91,7 +91,7 @@
 - must have LOINC#8867-4 code
 - must have effectiveDateTime
 - must have valueQuantity with units only of beats per minute
-  - must be value 40 &lt; n &lt; 240
+  - must be value 40 &lt;= n &lt;= 240
 - must have status at final
 - must point at the patient
 - may have a note (comment)

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -93,6 +93,7 @@
 - must have vital-signs category
 - must have LOINC#8867-4 code
 - must have effectiveDateTime
+  - others might use effectivePeriod
 - must have valueQuantity with units only of beats per minute
   - must be value 40 &lt;= n &lt;= 240
 - must have status at final

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="651">
   <si>
     <t>Property</t>
   </si>
@@ -278,6 +278,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>FHIR Heart Rate Profile</t>
@@ -2597,16 +2601,16 @@
         <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2671,16 +2675,16 @@
         <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2691,10 +2695,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2705,7 +2709,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2714,19 +2718,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2776,13 +2780,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2811,10 +2815,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2825,7 +2829,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2834,16 +2838,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2894,19 +2898,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2929,10 +2933,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2943,7 +2947,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2955,13 +2959,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3012,13 +3016,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -3036,7 +3040,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -3047,14 +3051,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3073,16 +3077,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3120,19 +3124,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -3144,7 +3148,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3156,7 +3160,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -3167,10 +3171,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3181,7 +3185,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3190,19 +3194,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3252,19 +3256,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3287,10 +3291,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3301,7 +3305,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3310,19 +3314,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3372,19 +3376,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3407,10 +3411,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3421,7 +3425,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3430,19 +3434,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3492,19 +3496,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3527,10 +3531,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3550,19 +3554,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3612,7 +3616,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3624,7 +3628,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3647,10 +3651,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3670,19 +3674,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3708,13 +3712,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3732,7 +3736,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3744,7 +3748,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3767,10 +3771,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3778,10 +3782,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3790,19 +3794,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3813,7 +3817,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3828,13 +3832,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3852,7 +3856,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3864,7 +3868,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3887,10 +3891,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3907,22 +3911,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3972,19 +3976,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -4007,10 +4011,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4033,16 +4037,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4068,13 +4072,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -4092,19 +4096,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4127,21 +4131,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -4153,16 +4157,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4212,19 +4216,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4236,7 +4240,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4247,14 +4251,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4273,16 +4277,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4332,7 +4336,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4356,7 +4360,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4367,10 +4371,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4393,13 +4397,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4450,7 +4454,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4462,7 +4466,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4485,10 +4489,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4505,19 +4509,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4568,7 +4572,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4580,7 +4584,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4603,10 +4607,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4626,20 +4630,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4688,7 +4692,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4700,22 +4704,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4723,14 +4727,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4746,20 +4750,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4808,7 +4812,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4820,19 +4824,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4843,14 +4847,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4866,19 +4870,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4928,7 +4932,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4940,19 +4944,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4963,10 +4967,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4974,34 +4978,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5011,7 +5015,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -5026,11 +5030,11 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -5048,34 +5052,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -5083,10 +5087,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5094,13 +5098,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -5109,19 +5113,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5146,29 +5150,29 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5180,7 +5184,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5192,10 +5196,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5203,26 +5207,26 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5231,19 +5235,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5268,13 +5272,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5292,7 +5296,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5304,7 +5308,7 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5316,10 +5320,10 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5327,10 +5331,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5341,7 +5345,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5353,13 +5357,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5410,13 +5414,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5434,7 +5438,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5445,14 +5449,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5471,16 +5475,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5518,19 +5522,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5542,7 +5546,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5554,7 +5558,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5565,10 +5569,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5576,34 +5580,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5652,7 +5656,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5664,7 +5668,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5673,10 +5677,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5687,10 +5691,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5701,7 +5705,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5713,13 +5717,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5770,13 +5774,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5794,7 +5798,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5805,14 +5809,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5831,16 +5835,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5878,19 +5882,19 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5902,7 +5906,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5914,7 +5918,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5925,10 +5929,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5936,41 +5940,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -6012,19 +6016,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -6033,10 +6037,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6047,10 +6051,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6061,7 +6065,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -6070,19 +6074,19 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6132,19 +6136,19 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -6153,10 +6157,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6167,10 +6171,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6178,39 +6182,39 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>82</v>
@@ -6252,19 +6256,19 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6273,10 +6277,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6287,10 +6291,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6301,7 +6305,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -6310,20 +6314,20 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6372,19 +6376,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6393,10 +6397,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6407,10 +6411,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6421,7 +6425,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6430,22 +6434,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6494,19 +6498,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6515,10 +6519,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6529,10 +6533,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6543,7 +6547,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6552,22 +6556,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6616,19 +6620,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6637,10 +6641,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6651,45 +6655,45 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6714,13 +6718,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6738,45 +6742,45 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6787,7 +6791,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6799,13 +6803,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6856,13 +6860,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6880,7 +6884,7 @@
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6891,14 +6895,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6917,16 +6921,16 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6964,19 +6968,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6988,7 +6992,7 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -7000,7 +7004,7 @@
         <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7011,10 +7015,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7034,22 +7038,22 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7086,17 +7090,17 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7108,7 +7112,7 @@
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -7117,10 +7121,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7131,23 +7135,23 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -7156,22 +7160,22 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7220,7 +7224,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7232,7 +7236,7 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
@@ -7241,10 +7245,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7255,10 +7259,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7269,7 +7273,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7281,13 +7285,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7338,13 +7342,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -7362,7 +7366,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7373,14 +7377,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7399,16 +7403,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7446,19 +7450,19 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7470,7 +7474,7 @@
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7482,7 +7486,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7493,10 +7497,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7504,10 +7508,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7516,29 +7520,29 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>82</v>
@@ -7580,19 +7584,19 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7601,10 +7605,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7615,10 +7619,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7629,7 +7633,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7638,19 +7642,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7700,19 +7704,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7721,10 +7725,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7735,10 +7739,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7746,10 +7750,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7758,27 +7762,27 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>82</v>
@@ -7820,19 +7824,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7841,10 +7845,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7855,10 +7859,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7869,7 +7873,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7878,20 +7882,20 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7940,19 +7944,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7961,10 +7965,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7975,10 +7979,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7989,7 +7993,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7998,22 +8002,22 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8062,19 +8066,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -8083,10 +8087,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8097,10 +8101,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8111,7 +8115,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -8120,22 +8124,22 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8184,19 +8188,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8205,10 +8209,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8219,10 +8223,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8230,34 +8234,34 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8306,34 +8310,34 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -8341,10 +8345,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8364,19 +8368,19 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8426,7 +8430,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8438,7 +8442,7 @@
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8447,13 +8451,13 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -8461,14 +8465,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8484,22 +8488,22 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8548,34 +8552,34 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -8583,45 +8587,45 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8658,44 +8662,44 @@
         <v>82</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8703,47 +8707,47 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8792,34 +8796,34 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8827,10 +8831,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8850,19 +8854,19 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8912,19 +8916,19 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8933,13 +8937,13 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -8947,10 +8951,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8970,20 +8974,20 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9032,7 +9036,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9044,22 +9048,22 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -9067,10 +9071,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9081,31 +9085,31 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9142,58 +9146,58 @@
         <v>82</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>82</v>
@@ -9203,31 +9207,31 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9276,45 +9280,45 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9325,7 +9329,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9337,13 +9341,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9394,13 +9398,13 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
@@ -9418,7 +9422,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9429,14 +9433,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9455,16 +9459,16 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9502,19 +9506,19 @@
         <v>82</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9526,7 +9530,7 @@
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9538,7 +9542,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9549,10 +9553,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9560,34 +9564,34 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9603,10 +9607,10 @@
         <v>82</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>82</v>
@@ -9636,19 +9640,19 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9657,10 +9661,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9671,10 +9675,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9685,35 +9689,35 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>82</v>
@@ -9734,13 +9738,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9758,19 +9762,19 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9779,10 +9783,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9793,10 +9797,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9804,32 +9808,32 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9839,7 +9843,7 @@
         <v>82</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>82</v>
@@ -9878,19 +9882,19 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9899,10 +9903,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9913,10 +9917,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9924,39 +9928,39 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>82</v>
@@ -9998,19 +10002,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -10019,10 +10023,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10033,10 +10037,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10044,41 +10048,41 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>82</v>
@@ -10120,19 +10124,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -10141,10 +10145,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10155,10 +10159,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10172,7 +10176,7 @@
         <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>82</v>
@@ -10181,19 +10185,19 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10218,13 +10222,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10242,19 +10246,19 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10263,10 +10267,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10277,14 +10281,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10303,19 +10307,19 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10340,13 +10344,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10364,7 +10368,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10376,33 +10380,33 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10413,7 +10417,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10425,19 +10429,19 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10486,7 +10490,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10498,7 +10502,7 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10507,10 +10511,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10521,10 +10525,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10547,16 +10551,16 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10582,13 +10586,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10606,45 +10610,45 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10667,19 +10671,19 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10704,13 +10708,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10728,19 +10732,19 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10749,10 +10753,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10763,10 +10767,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10789,16 +10793,16 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10848,45 +10852,45 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10909,16 +10913,16 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10968,45 +10972,45 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11029,19 +11033,19 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11090,7 +11094,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11102,7 +11106,7 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11111,10 +11115,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11125,10 +11129,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11139,7 +11143,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11151,13 +11155,13 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11208,13 +11212,13 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
@@ -11232,7 +11236,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11243,14 +11247,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11269,16 +11273,16 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11328,7 +11332,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11340,7 +11344,7 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11352,7 +11356,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11363,14 +11367,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11383,25 +11387,25 @@
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11450,7 +11454,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11462,7 +11466,7 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11474,7 +11478,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11485,10 +11489,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11499,7 +11503,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11511,13 +11515,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11568,19 +11572,19 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11589,10 +11593,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11603,10 +11607,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11617,7 +11621,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11629,13 +11633,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11686,19 +11690,19 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11707,10 +11711,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11721,10 +11725,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11735,7 +11739,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11747,19 +11751,19 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11784,13 +11788,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11808,31 +11812,31 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11843,10 +11847,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11869,19 +11873,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11906,13 +11910,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11930,7 +11934,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11942,19 +11946,19 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11965,10 +11969,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11979,7 +11983,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11991,17 +11995,17 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12050,19 +12054,19 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12074,7 +12078,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12085,10 +12089,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12099,7 +12103,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12111,13 +12115,13 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12168,19 +12172,19 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12189,10 +12193,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12203,10 +12207,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12226,19 +12230,19 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12288,7 +12292,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12300,7 +12304,7 @@
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12309,10 +12313,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12323,10 +12327,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12346,19 +12350,19 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12408,7 +12412,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12420,7 +12424,7 @@
         <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
@@ -12429,10 +12433,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12443,10 +12447,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12460,28 +12464,28 @@
         <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12530,7 +12534,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12542,7 +12546,7 @@
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12551,10 +12555,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12565,10 +12569,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12579,7 +12583,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12591,13 +12595,13 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12648,13 +12652,13 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>82</v>
@@ -12672,7 +12676,7 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12683,14 +12687,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12709,16 +12713,16 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12768,7 +12772,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12780,7 +12784,7 @@
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12792,7 +12796,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12803,14 +12807,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12823,25 +12827,25 @@
         <v>82</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12890,7 +12894,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12902,7 +12906,7 @@
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -12914,7 +12918,7 @@
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12925,10 +12929,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12936,34 +12940,34 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12988,13 +12992,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -13012,34 +13016,34 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13047,10 +13051,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13061,31 +13065,31 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13110,13 +13114,13 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -13134,45 +13138,45 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13183,10 +13187,10 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>82</v>
@@ -13195,19 +13199,19 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13232,13 +13236,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13256,19 +13260,19 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
@@ -13277,10 +13281,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13291,14 +13295,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13317,19 +13321,19 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13354,13 +13358,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13378,7 +13382,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13390,33 +13394,33 @@
         <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13442,16 +13446,16 @@
         <v>82</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13500,7 +13504,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13512,7 +13516,7 @@
         <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13521,10 +13525,10 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Observation that declares how MHV will Create/Update in PGHD for heart rate measurements.
+    <t>A profile on the Observation that declares how MHV will Create in PGHD for heart rate measurements.
 Note this is compliant with FHIR core vital-signs.
 - must be marked with MHV app tag
 - must have vital-signs category

--- a/docs/StructureDefinition-VA.MHV.heartRate.xlsx
+++ b/docs/StructureDefinition-VA.MHV.heartRate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="652">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -95,7 +95,7 @@
 - must have effectiveDateTime
   - others might use effectivePeriod
 - must have valueQuantity with units only of beats per minute
-  - must be value 40 &lt;= n &lt;= 240
+  - must be value 10 &lt;= n &lt;= 250
 - must have status at final
 - must point at the patient
 - may have a note (comment)
@@ -293,6 +293,10 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -450,7 +454,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -470,7 +474,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1263,7 +1267,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1406,14 +1410,14 @@
   </si>
   <si>
     <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="40"/&gt;
+  &lt;value value="10"/&gt;
   &lt;system value="http://unitsofmeasure.org"/&gt;
   &lt;code value="/min"/&gt;
 &lt;/valueQuantity&gt;</t>
   </si>
   <si>
     <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="240"/&gt;
+  &lt;value value="250"/&gt;
   &lt;system value="http://unitsofmeasure.org"/&gt;
   &lt;code value="/min"/&gt;
 &lt;/valueQuantity&gt;</t>
@@ -2185,10 +2189,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2672,19 +2676,19 @@
         <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2695,10 +2699,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2709,7 +2713,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2718,19 +2722,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2780,13 +2784,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2815,10 +2819,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2829,7 +2833,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2838,16 +2842,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2898,19 +2902,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2933,10 +2937,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2947,7 +2951,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2959,13 +2963,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3016,13 +3020,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -3040,7 +3044,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -3051,14 +3055,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3077,16 +3081,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3124,19 +3128,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -3148,7 +3152,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3160,7 +3164,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -3171,10 +3175,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3185,7 +3189,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3194,19 +3198,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3256,19 +3260,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3291,10 +3295,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3305,7 +3309,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3314,19 +3318,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3376,19 +3380,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3411,10 +3415,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3425,7 +3429,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3434,19 +3438,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3496,19 +3500,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3531,10 +3535,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3554,19 +3558,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3616,7 +3620,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3628,7 +3632,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3651,10 +3655,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3674,19 +3678,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3712,13 +3716,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3736,7 +3740,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3748,7 +3752,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3771,10 +3775,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3782,10 +3786,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3794,19 +3798,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3817,7 +3821,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3832,13 +3836,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3856,7 +3860,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3868,7 +3872,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3891,10 +3895,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3911,22 +3915,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3976,19 +3980,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -4011,10 +4015,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4037,16 +4041,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4072,13 +4076,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -4096,19 +4100,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4131,21 +4135,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -4157,16 +4161,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4216,19 +4220,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4240,7 +4244,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4251,14 +4255,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4277,16 +4281,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4336,7 +4340,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4360,7 +4364,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4371,10 +4375,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4397,13 +4401,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4454,7 +4458,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4466,7 +4470,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4489,10 +4493,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4509,19 +4513,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4572,7 +4576,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4584,7 +4588,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4607,10 +4611,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4630,20 +4634,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4692,7 +4696,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4704,22 +4708,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4727,14 +4731,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4750,20 +4754,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4812,7 +4816,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4824,19 +4828,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4847,14 +4851,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4870,19 +4874,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4932,7 +4936,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4944,19 +4948,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4967,10 +4971,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4978,34 +4982,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5015,7 +5019,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -5030,11 +5034,11 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -5052,34 +5056,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -5087,10 +5091,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5098,13 +5102,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -5113,19 +5117,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5150,29 +5154,29 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5184,7 +5188,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5196,10 +5200,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5207,26 +5211,26 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5235,19 +5239,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5272,13 +5276,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5296,7 +5300,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5308,7 +5312,7 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5320,10 +5324,10 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5331,10 +5335,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5345,7 +5349,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5357,13 +5361,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5414,13 +5418,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5438,7 +5442,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5449,14 +5453,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5475,16 +5479,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5522,19 +5526,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5546,7 +5550,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5558,7 +5562,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5569,10 +5573,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5580,34 +5584,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5656,7 +5660,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5668,7 +5672,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5677,10 +5681,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5691,10 +5695,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5705,7 +5709,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5717,13 +5721,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5774,13 +5778,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5798,7 +5802,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5809,14 +5813,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5835,16 +5839,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5882,19 +5886,19 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5906,7 +5910,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5918,7 +5922,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5929,10 +5933,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5940,41 +5944,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -6016,19 +6020,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -6037,10 +6041,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6051,10 +6055,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6065,7 +6069,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -6074,19 +6078,19 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6136,19 +6140,19 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -6157,10 +6161,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6171,10 +6175,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6182,39 +6186,39 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>82</v>
@@ -6256,19 +6260,19 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6277,10 +6281,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6291,10 +6295,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6305,7 +6309,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -6314,20 +6318,20 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6376,19 +6380,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6397,10 +6401,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6411,10 +6415,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6425,7 +6429,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6434,22 +6438,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6498,19 +6502,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6519,10 +6523,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6533,10 +6537,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6547,7 +6551,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6556,22 +6560,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6620,19 +6624,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6641,10 +6645,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6655,45 +6659,45 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6718,13 +6722,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6742,45 +6746,45 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6791,7 +6795,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6803,13 +6807,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6860,13 +6864,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6884,7 +6888,7 @@
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6895,14 +6899,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6921,16 +6925,16 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6968,19 +6972,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6992,7 +6996,7 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -7004,7 +7008,7 @@
         <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7015,10 +7019,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7038,22 +7042,22 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7090,17 +7094,17 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7112,7 +7116,7 @@
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -7121,10 +7125,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7135,23 +7139,23 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -7160,22 +7164,22 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7224,7 +7228,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7236,7 +7240,7 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
@@ -7245,10 +7249,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7259,10 +7263,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7273,7 +7277,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7285,13 +7289,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7342,13 +7346,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -7366,7 +7370,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7377,14 +7381,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7403,16 +7407,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7450,19 +7454,19 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7474,7 +7478,7 @@
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7486,7 +7490,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7497,10 +7501,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7508,10 +7512,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7520,29 +7524,29 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>82</v>
@@ -7584,19 +7588,19 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7605,10 +7609,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7619,10 +7623,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7633,7 +7637,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7642,19 +7646,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7704,19 +7708,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7725,10 +7729,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7739,10 +7743,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7750,10 +7754,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7762,27 +7766,27 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>82</v>
@@ -7824,19 +7828,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7845,10 +7849,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7859,10 +7863,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7873,7 +7877,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7882,20 +7886,20 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7944,19 +7948,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7965,10 +7969,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7979,10 +7983,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7993,7 +7997,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -8002,22 +8006,22 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8066,19 +8070,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -8087,10 +8091,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8101,10 +8105,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8115,7 +8119,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -8124,22 +8128,22 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8188,19 +8192,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8209,10 +8213,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8223,10 +8227,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8234,34 +8238,34 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8310,34 +8314,34 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -8345,10 +8349,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8368,19 +8372,19 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8430,7 +8434,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8442,7 +8446,7 @@
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8451,13 +8455,13 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -8465,14 +8469,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8488,22 +8492,22 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8552,34 +8556,34 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -8587,45 +8591,45 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8662,44 +8666,44 @@
         <v>82</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8707,47 +8711,47 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8796,34 +8800,34 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8831,10 +8835,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8854,19 +8858,19 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8916,19 +8920,19 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8937,13 +8941,13 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -8951,10 +8955,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8974,20 +8978,20 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9036,7 +9040,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9048,22 +9052,22 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -9071,10 +9075,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9085,31 +9089,31 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9146,58 +9150,58 @@
         <v>82</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>82</v>
@@ -9207,31 +9211,31 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9280,45 +9284,45 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9329,7 +9333,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9341,13 +9345,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9398,13 +9402,13 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
@@ -9422,7 +9426,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9433,14 +9437,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9459,16 +9463,16 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9506,19 +9510,19 @@
         <v>82</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9530,7 +9534,7 @@
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9542,7 +9546,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9553,10 +9557,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9564,34 +9568,34 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9607,10 +9611,10 @@
         <v>82</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>82</v>
@@ -9640,19 +9644,19 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9661,10 +9665,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9675,10 +9679,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9689,35 +9693,35 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>82</v>
@@ -9738,13 +9742,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9762,19 +9766,19 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9783,10 +9787,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9797,10 +9801,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9808,32 +9812,32 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9843,7 +9847,7 @@
         <v>82</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>82</v>
@@ -9882,19 +9886,19 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9903,10 +9907,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9917,10 +9921,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9928,39 +9932,39 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>82</v>
@@ -10002,19 +10006,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -10023,10 +10027,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10037,10 +10041,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10048,41 +10052,41 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>82</v>
@@ -10124,19 +10128,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -10145,10 +10149,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10159,10 +10163,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10176,7 +10180,7 @@
         <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>82</v>
@@ -10185,19 +10189,19 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10222,13 +10226,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10246,19 +10250,19 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10267,10 +10271,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10281,14 +10285,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10307,19 +10311,19 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10344,13 +10348,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10368,7 +10372,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10380,33 +10384,33 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10417,7 +10421,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10429,19 +10433,19 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10490,7 +10494,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10502,7 +10506,7 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10511,10 +10515,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10525,10 +10529,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10551,16 +10555,16 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10586,13 +10590,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10610,45 +10614,45 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10671,19 +10675,19 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10708,13 +10712,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10732,19 +10736,19 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10753,10 +10757,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10767,10 +10771,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10793,16 +10797,16 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10852,45 +10856,45 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10913,16 +10917,16 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10972,45 +10976,45 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11033,19 +11037,19 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11094,7 +11098,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11106,7 +11110,7 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11115,10 +11119,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11129,10 +11133,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11143,7 +11147,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11155,13 +11159,13 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11212,13 +11216,13 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
@@ -11236,7 +11240,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11247,14 +11251,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11273,16 +11277,16 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11332,7 +11336,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11344,7 +11348,7 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11356,7 +11360,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11367,14 +11371,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11387,25 +11391,25 @@
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11454,7 +11458,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11466,7 +11470,7 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11478,7 +11482,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11489,10 +11493,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11503,7 +11507,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11515,13 +11519,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11572,19 +11576,19 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11593,10 +11597,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11607,10 +11611,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11621,7 +11625,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11633,13 +11637,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11690,19 +11694,19 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11711,10 +11715,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11725,10 +11729,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11739,7 +11743,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11751,19 +11755,19 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11788,13 +11792,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11812,31 +11816,31 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11847,10 +11851,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11873,19 +11877,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11910,13 +11914,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11934,7 +11938,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11946,19 +11950,19 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11969,10 +11973,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11983,7 +11987,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11995,17 +11999,17 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12054,19 +12058,19 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12078,7 +12082,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12089,10 +12093,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12103,7 +12107,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12115,13 +12119,13 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12172,19 +12176,19 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12193,10 +12197,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12207,10 +12211,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12230,19 +12234,19 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12292,7 +12296,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12304,7 +12308,7 @@
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12313,10 +12317,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12327,10 +12331,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12350,19 +12354,19 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12412,7 +12416,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12424,7 +12428,7 @@
         <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
@@ -12433,10 +12437,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12447,10 +12451,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12464,28 +12468,28 @@
         <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12534,7 +12538,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12546,7 +12550,7 @@
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12555,10 +12559,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12569,10 +12573,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12583,7 +12587,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12595,13 +12599,13 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12652,13 +12656,13 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>82</v>
@@ -12676,7 +12680,7 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12687,14 +12691,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12713,16 +12717,16 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12772,7 +12776,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12784,7 +12788,7 @@
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12796,7 +12800,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12807,14 +12811,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12827,25 +12831,25 @@
         <v>82</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12894,7 +12898,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12906,7 +12910,7 @@
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -12918,7 +12922,7 @@
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12929,10 +12933,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12940,34 +12944,34 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12992,13 +12996,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -13016,34 +13020,34 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13051,10 +13055,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13065,31 +13069,31 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13114,13 +13118,13 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -13138,45 +13142,45 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13187,10 +13191,10 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>82</v>
@@ -13199,19 +13203,19 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13236,13 +13240,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13260,19 +13264,19 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
@@ -13281,10 +13285,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13295,14 +13299,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13321,19 +13325,19 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13358,13 +13362,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13382,7 +13386,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13394,33 +13398,33 @@
         <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13446,16 +13450,16 @@
         <v>82</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13504,7 +13508,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13516,7 +13520,7 @@
         <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13525,10 +13529,10 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
